--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Address</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +509,7 @@
           <t>pune</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,6 +545,7 @@
           <t>pune</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,6 +581,7 @@
           <t>pune</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -609,6 +617,7 @@
           <t>pune</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -644,6 +653,7 @@
           <t>a</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -679,6 +689,7 @@
           <t>741</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -714,6 +725,7 @@
           <t>741</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -749,6 +761,7 @@
           <t>pune</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -776,14 +789,295 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>741852</t>
-        </is>
+      <c r="F10" t="n">
+        <v>741852</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>asdf</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>siddhesh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Team Leader</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>741</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>741</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Akash</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Akash45</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Akash@45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>pune12334</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ASSDS@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sidd@666</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>7418596741</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>siddhu66@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Kiran</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Kirang</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kiran@4566</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>7517889412</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>pune</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>kiran45@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Harshal</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Harshal66</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Harshal@66</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Team Leader</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>7894561230</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>pune</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>harshal@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shripad</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Shripad66</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Shripad@66</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1234567891</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>shripad66@gmail.com</t>
         </is>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>akash@gmail.com</t>
+          <t>akash21@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Akash45</t>
+          <t>Akash654</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,27 +518,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sam</t>
+          <t>as</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sam@gmail.com</t>
+          <t>as@gmail.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sam45</t>
+          <t>As45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sam@9876</t>
+          <t>As@321456</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>Manager</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -551,29 +551,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>abcd</t>
+          <t>vdgg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sam</t>
+          <t>Samarth</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sam12@gmail.com</t>
+          <t>samarth@gmail.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sam456</t>
+          <t>Samarth45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sam@1234</t>
+          <t>Samarth@987</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1234876591</v>
+        <v>1234567891</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -598,42 +598,122 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>wer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>akash45@gmail.com</t>
+          <t>er@gmail.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Akash455</t>
+          <t>sam45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Akash@45</t>
+          <t>Sam@32145</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1234567891</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>don@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Don45</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Don@4321</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1234567891</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>vdfdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ram@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ram45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ram@4321</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>7412589637</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>pune</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1234567810</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>anbs</t>
         </is>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,14 +706,134 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1234567810</t>
-        </is>
+      <c r="G7" t="n">
+        <v>1234567810</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>anbs</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Varun</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>varun@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Varun45</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Varun@987</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1234567891</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>abvc</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arpit</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>arpit@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arpit45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Arpit@987</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1234567891</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Akash</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>akash31@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Akash321</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Akash@987</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Team Leader</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1234567891</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>xjhd</t>
         </is>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,14 +826,94 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1234567891</t>
-        </is>
+      <c r="G10" t="n">
+        <v>1234567891</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>xjhd</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Abhi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>abhi@gamil.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Abhi45</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Abhi@987</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1234567891</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>abvcd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ram1@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ram456</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ram@9876</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1234567897</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>abcd</t>
         </is>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,12 +906,172 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1234567897</t>
-        </is>
+      <c r="G12" t="n">
+        <v>1234567897</v>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>abcd</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rohit Sharma</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>rohit@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rohit45</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Rohit@987</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>7894561237</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Virat kohli</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>virat@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Virat18</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Virat@9876</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4561237894</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Mumbai</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dhoni</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dhoni@gmail.com</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dhoni7</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dhoni@987</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1234567891</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Csk</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Abhishek</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>abhi2@gmail.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Abhi456</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Abhi@987</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1234567891</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>abcd</t>
         </is>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,10 +1745,8 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1234567891</t>
-        </is>
+      <c r="F34" t="n">
+        <v>1234567891</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1758,6 +1756,168 @@
       <c r="H34" t="inlineStr">
         <is>
           <t>ravi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Akash Kawade</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Akash5880</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Akash@0992</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CEO</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>4567891231</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Ozar</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>akash23@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tanmay</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tanmay45</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tanmay@987</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1234567897</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>tanmay@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Samarth</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Samarth18</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Samarth@987</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4557896321</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pune</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>samarth1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rushi</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Rushi45</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Rushi@987</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1234567898</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>pune</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>rushi@gmail.com</t>
         </is>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,10 +1105,8 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7418529634</t>
-        </is>
+      <c r="F18" t="n">
+        <v>7418529634</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1118,6 +1116,168 @@
       <c r="H18" t="inlineStr">
         <is>
           <t>sahil@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RushiD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rushid</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RushiD@66</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Team Leader</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>7894561322</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>pune</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>rus@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rushi</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rushi</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rushi@33</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>9970930912</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alandi</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>rushi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rushi</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rushi1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Rushi@33</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>9970930912</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>r@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Vedant</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vedant66</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Vedant@66</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1234567894</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>pune</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>vedant@gmail.com</t>
         </is>
       </c>
     </row>
